--- a/resources/files/OPERACIONES DE EXPORTACION 2025.xlsx
+++ b/resources/files/OPERACIONES DE EXPORTACION 2025.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="300">
   <si>
     <t>FLETE</t>
   </si>
@@ -945,6 +945,12 @@
   <si>
     <t>A328092 A328093</t>
   </si>
+  <si>
+    <t>011701</t>
+  </si>
+  <si>
+    <t>011691</t>
+  </si>
 </sst>
 </file>
 
@@ -1227,7 +1233,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,14 +1404,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1440,6 +1440,19 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Millares 2" xfId="7"/>
@@ -2323,7 +2336,7 @@
   <dimension ref="A1:XEO62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
@@ -2354,7 +2367,7 @@
     <col min="23" max="23" width="14.85546875" customWidth="1"/>
     <col min="24" max="24" width="21.5703125" customWidth="1"/>
     <col min="25" max="25" width="20.5703125" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" style="84" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="15.42578125" style="10" customWidth="1"/>
     <col min="29" max="29" width="27.28515625" customWidth="1"/>
@@ -2375,55 +2388,55 @@
   <sheetData>
     <row r="1" spans="1:16369" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="75" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="75" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="78" t="s">
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="78" t="s">
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="78" t="s">
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="78" t="s">
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="AJ1" s="80"/>
+      <c r="AJ1" s="78"/>
       <c r="AK1" s="18" t="s">
         <v>162</v>
       </c>
@@ -2433,14 +2446,14 @@
       <c r="AM1" s="20">
         <v>17.0626</v>
       </c>
-      <c r="AN1" s="72" t="s">
+      <c r="AN1" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="74"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="72"/>
       <c r="AT1" s="7"/>
       <c r="AU1" s="7"/>
       <c r="AV1" s="7"/>
@@ -18842,7 +18855,7 @@
       <c r="Y2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AA2" s="29" t="s">
@@ -35293,7 +35306,7 @@
       <c r="Y3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA3" s="14">
@@ -35383,8 +35396,8 @@
       <c r="Y4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="6">
-        <v>11701</v>
+      <c r="Z4" s="81" t="s">
+        <v>298</v>
       </c>
       <c r="AA4" s="14">
         <v>10581.68</v>
@@ -35471,8 +35484,8 @@
       <c r="Y5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="6">
-        <v>11691</v>
+      <c r="Z5" s="81" t="s">
+        <v>299</v>
       </c>
       <c r="AA5" s="14">
         <v>10581.68</v>
@@ -35565,7 +35578,7 @@
       <c r="Y6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA6" s="14">
@@ -35661,7 +35674,7 @@
       <c r="Y7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA7" s="14">
@@ -35757,7 +35770,7 @@
       <c r="Y8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA8" s="14">
@@ -35853,7 +35866,7 @@
       <c r="Y9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA9" s="14">
@@ -35947,7 +35960,7 @@
       <c r="Y10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z10" s="68" t="s">
+      <c r="Z10" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA10" s="14">
@@ -35960,7 +35973,7 @@
       </c>
       <c r="AF10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="69" t="s">
+      <c r="AI10" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ10" s="42">
@@ -36041,7 +36054,7 @@
       <c r="Y11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="68" t="s">
+      <c r="Z11" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA11" s="14">
@@ -36054,7 +36067,7 @@
       </c>
       <c r="AF11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="69" t="s">
+      <c r="AI11" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ11" s="42">
@@ -36135,7 +36148,7 @@
       <c r="Y12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z12" s="68" t="s">
+      <c r="Z12" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA12" s="14">
@@ -36231,7 +36244,7 @@
       <c r="Y13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="68" t="s">
+      <c r="Z13" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA13" s="14">
@@ -36244,7 +36257,7 @@
       </c>
       <c r="AF13" s="10"/>
       <c r="AH13" s="10"/>
-      <c r="AI13" s="69" t="s">
+      <c r="AI13" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ13" s="42">
@@ -36325,7 +36338,7 @@
       <c r="Y14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="68" t="s">
+      <c r="Z14" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA14" s="14">
@@ -36370,7 +36383,7 @@
       <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="69" t="s">
         <v>297</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -36402,7 +36415,7 @@
       <c r="Y15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z15" s="68" t="s">
+      <c r="Z15" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA15" s="14">
@@ -36415,7 +36428,7 @@
       </c>
       <c r="AF15" s="10"/>
       <c r="AH15" s="10"/>
-      <c r="AI15" s="69" t="s">
+      <c r="AI15" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ15" s="42">
@@ -36491,7 +36504,7 @@
       <c r="Y16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="Z16" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA16" s="14">
@@ -36585,7 +36598,7 @@
       <c r="Y17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="68" t="s">
+      <c r="Z17" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA17" s="14">
@@ -36681,7 +36694,7 @@
       <c r="Y18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="Z18" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA18" s="14">
@@ -36694,7 +36707,7 @@
       </c>
       <c r="AF18" s="10"/>
       <c r="AH18" s="10"/>
-      <c r="AI18" s="69" t="s">
+      <c r="AI18" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ18" s="42">
@@ -36775,7 +36788,7 @@
       <c r="Y19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="Z19" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA19" s="14">
@@ -36871,7 +36884,7 @@
       <c r="Y20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="Z20" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA20" s="14">
@@ -36967,7 +36980,7 @@
       <c r="Y21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="Z21" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA21" s="14">
@@ -37064,7 +37077,7 @@
       <c r="Y22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Z22" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA22" s="14">
@@ -37160,7 +37173,7 @@
       <c r="Y23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="Z23" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA23" s="14">
@@ -37173,7 +37186,7 @@
       </c>
       <c r="AF23" s="10"/>
       <c r="AH23" s="10"/>
-      <c r="AI23" s="69" t="s">
+      <c r="AI23" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ23" s="42">
@@ -37257,7 +37270,7 @@
       <c r="Y24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="5" t="s">
+      <c r="Z24" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA24" s="14">
@@ -37353,7 +37366,7 @@
       <c r="Y25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="Z25" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA25" s="14">
@@ -37449,7 +37462,7 @@
       <c r="Y26" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="Z26" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA26" s="14">
@@ -37545,7 +37558,7 @@
       <c r="Y27" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="Z27" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA27" s="14">
@@ -37558,7 +37571,7 @@
       </c>
       <c r="AF27" s="10"/>
       <c r="AH27" s="10"/>
-      <c r="AI27" s="69" t="s">
+      <c r="AI27" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ27" s="42">
@@ -37639,7 +37652,7 @@
       <c r="Y28" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Z28" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA28" s="14">
@@ -37735,7 +37748,7 @@
       <c r="Y29" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z29" s="5" t="s">
+      <c r="Z29" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA29" s="14">
@@ -37831,7 +37844,7 @@
       <c r="Y30" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z30" s="5" t="s">
+      <c r="Z30" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA30" s="14">
@@ -37927,7 +37940,7 @@
       <c r="Y31" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z31" s="5" t="s">
+      <c r="Z31" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA31" s="14">
@@ -38023,7 +38036,7 @@
       <c r="Y32" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z32" s="5" t="s">
+      <c r="Z32" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA32" s="14">
@@ -38036,7 +38049,7 @@
       </c>
       <c r="AF32" s="10"/>
       <c r="AH32" s="10"/>
-      <c r="AI32" s="69" t="s">
+      <c r="AI32" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ32" s="42">
@@ -38117,7 +38130,7 @@
       <c r="Y33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z33" s="5" t="s">
+      <c r="Z33" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA33" s="14">
@@ -38209,7 +38222,7 @@
       <c r="Y34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z34" s="5" t="s">
+      <c r="Z34" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA34" s="14">
@@ -38301,7 +38314,7 @@
       <c r="Y35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z35" s="5" t="s">
+      <c r="Z35" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA35" s="14">
@@ -38375,7 +38388,7 @@
       <c r="Y36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z36" s="5" t="s">
+      <c r="Z36" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA36" s="14">
@@ -38418,7 +38431,7 @@
       <c r="F37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="69" t="s">
         <v>296</v>
       </c>
       <c r="H37" s="6" t="s">
@@ -38451,7 +38464,7 @@
       <c r="Y37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z37" s="70" t="s">
+      <c r="Z37" s="83" t="s">
         <v>279</v>
       </c>
       <c r="AA37" s="14">
@@ -38520,7 +38533,7 @@
       <c r="Y38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="70" t="s">
+      <c r="Z38" s="83" t="s">
         <v>279</v>
       </c>
       <c r="AA38" s="14">
@@ -38609,7 +38622,7 @@
       <c r="Y39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z39" s="5" t="s">
+      <c r="Z39" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA39" s="14">
@@ -38697,7 +38710,7 @@
       <c r="Y40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z40" s="5" t="s">
+      <c r="Z40" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA40" s="14">
@@ -38707,7 +38720,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="69" t="s">
+      <c r="AI40" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ40" s="42">
@@ -38785,7 +38798,7 @@
       <c r="Y41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z41" s="5" t="s">
+      <c r="Z41" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA41" s="14">
@@ -38795,7 +38808,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="69" t="s">
+      <c r="AI41" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ41" s="42">
@@ -38867,7 +38880,7 @@
       <c r="Y42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z42" s="5" t="s">
+      <c r="Z42" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA42" s="14">
@@ -38877,7 +38890,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="69" t="s">
+      <c r="AI42" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ42" s="42">
@@ -38949,7 +38962,7 @@
       <c r="Y43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z43" s="5" t="s">
+      <c r="Z43" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA43" s="14">
@@ -38959,7 +38972,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI43" s="69" t="s">
+      <c r="AI43" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ43" s="42">
@@ -39031,7 +39044,7 @@
       <c r="Y44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z44" s="5" t="s">
+      <c r="Z44" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA44" s="14">
@@ -39041,7 +39054,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI44" s="69" t="s">
+      <c r="AI44" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ44" s="42">
@@ -39111,7 +39124,7 @@
       <c r="Y45" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="68" t="s">
+      <c r="Z45" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA45" s="14">
@@ -39121,7 +39134,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI45" s="69" t="s">
+      <c r="AI45" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ45" s="42">
@@ -39191,7 +39204,7 @@
       <c r="Y46" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="68" t="s">
+      <c r="Z46" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA46" s="14">
@@ -39201,7 +39214,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI46" s="69" t="s">
+      <c r="AI46" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ46" s="42">
@@ -39267,7 +39280,7 @@
       <c r="Y47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="5" t="s">
+      <c r="Z47" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA47" s="14">
@@ -39337,7 +39350,7 @@
       <c r="Y48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z48" s="5" t="s">
+      <c r="Z48" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA48" s="14">
@@ -39347,7 +39360,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI48" s="69" t="s">
+      <c r="AI48" s="68" t="s">
         <v>277</v>
       </c>
       <c r="AJ48" s="42">
@@ -39385,10 +39398,10 @@
       <c r="R49" s="1"/>
       <c r="X49" s="60"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
+      <c r="Z49" s="82"/>
       <c r="AA49" s="14"/>
       <c r="AD49" s="17"/>
-      <c r="AI49" s="69"/>
+      <c r="AI49" s="68"/>
       <c r="AJ49" s="42"/>
       <c r="AO49" s="13"/>
     </row>
@@ -39419,10 +39432,10 @@
       <c r="R50" s="1"/>
       <c r="X50" s="60"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="Z50" s="82"/>
       <c r="AA50" s="14"/>
       <c r="AD50" s="17"/>
-      <c r="AI50" s="69"/>
+      <c r="AI50" s="68"/>
       <c r="AJ50" s="42"/>
       <c r="AO50" s="13"/>
     </row>
@@ -39453,10 +39466,10 @@
       <c r="R51" s="1"/>
       <c r="X51" s="60"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="Z51" s="82"/>
       <c r="AA51" s="14"/>
       <c r="AD51" s="17"/>
-      <c r="AI51" s="69"/>
+      <c r="AI51" s="68"/>
       <c r="AJ51" s="42"/>
       <c r="AO51" s="13"/>
     </row>
@@ -39524,7 +39537,7 @@
       <c r="Y52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z52" s="5" t="s">
+      <c r="Z52" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA52" s="14">
@@ -39534,7 +39547,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI52" s="69" t="s">
+      <c r="AI52" s="68" t="s">
         <v>171</v>
       </c>
       <c r="AJ52" s="42">
@@ -39639,53 +39652,53 @@
       </c>
     </row>
     <row r="58" spans="1:16369" s="63" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="81"/>
-      <c r="S58" s="81"/>
-      <c r="T58" s="81"/>
-      <c r="U58" s="81"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
-      <c r="X58" s="81"/>
-      <c r="Y58" s="81"/>
-      <c r="Z58" s="81"/>
-      <c r="AA58" s="81"/>
-      <c r="AB58" s="81"/>
-      <c r="AC58" s="81"/>
-      <c r="AD58" s="81"/>
-      <c r="AE58" s="81"/>
-      <c r="AF58" s="81"/>
-      <c r="AG58" s="81"/>
-      <c r="AH58" s="81"/>
-      <c r="AI58" s="81"/>
-      <c r="AJ58" s="81"/>
-      <c r="AK58" s="81"/>
-      <c r="AL58" s="81"/>
-      <c r="AM58" s="81"/>
-      <c r="AN58" s="81"/>
-      <c r="AO58" s="81"/>
-      <c r="AP58" s="81"/>
-      <c r="AQ58" s="81"/>
-      <c r="AR58" s="81"/>
-      <c r="AS58" s="81"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="79"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="79"/>
+      <c r="AA58" s="79"/>
+      <c r="AB58" s="79"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="79"/>
+      <c r="AE58" s="79"/>
+      <c r="AF58" s="79"/>
+      <c r="AG58" s="79"/>
+      <c r="AH58" s="79"/>
+      <c r="AI58" s="79"/>
+      <c r="AJ58" s="79"/>
+      <c r="AK58" s="79"/>
+      <c r="AL58" s="79"/>
+      <c r="AM58" s="79"/>
+      <c r="AN58" s="79"/>
+      <c r="AO58" s="79"/>
+      <c r="AP58" s="79"/>
+      <c r="AQ58" s="79"/>
+      <c r="AR58" s="79"/>
+      <c r="AS58" s="79"/>
       <c r="AT58" s="64"/>
       <c r="AU58" s="64"/>
       <c r="AV58" s="64"/>
@@ -39750,55 +39763,55 @@
     </row>
     <row r="59" spans="1:16369" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="75" t="s">
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="77"/>
-      <c r="S59" s="75" t="s">
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="T59" s="76"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="77"/>
-      <c r="Y59" s="78" t="s">
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="75"/>
+      <c r="Y59" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z59" s="79"/>
-      <c r="AA59" s="79"/>
-      <c r="AB59" s="79"/>
-      <c r="AC59" s="79"/>
-      <c r="AD59" s="80"/>
-      <c r="AE59" s="78" t="s">
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="77"/>
+      <c r="AB59" s="77"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="78"/>
+      <c r="AE59" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="AF59" s="80"/>
-      <c r="AG59" s="78" t="s">
+      <c r="AF59" s="78"/>
+      <c r="AG59" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH59" s="80"/>
-      <c r="AI59" s="78" t="s">
+      <c r="AH59" s="78"/>
+      <c r="AI59" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="AJ59" s="80"/>
+      <c r="AJ59" s="78"/>
       <c r="AK59" s="18" t="s">
         <v>162</v>
       </c>
@@ -39808,14 +39821,14 @@
       <c r="AM59" s="20">
         <v>17.0626</v>
       </c>
-      <c r="AN59" s="72" t="s">
+      <c r="AN59" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="AO59" s="73"/>
-      <c r="AP59" s="73"/>
-      <c r="AQ59" s="73"/>
-      <c r="AR59" s="73"/>
-      <c r="AS59" s="74"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
+      <c r="AR59" s="71"/>
+      <c r="AS59" s="72"/>
       <c r="AT59" s="65"/>
       <c r="AU59" s="65"/>
       <c r="AV59" s="65"/>
@@ -56217,7 +56230,7 @@
       <c r="Y60" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Z60" s="33" t="s">
+      <c r="Z60" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AA60" s="29" t="s">
@@ -72651,7 +72664,7 @@
       <c r="Y61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z61" s="5" t="s">
+      <c r="Z61" s="82" t="s">
         <v>277</v>
       </c>
       <c r="AA61" s="14">
@@ -72724,7 +72737,7 @@
       <c r="Y62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z62" s="5" t="s">
+      <c r="Z62" s="82" t="s">
         <v>277</v>
       </c>
       <c r="AA62" s="14">

--- a/resources/files/OPERACIONES DE EXPORTACION 2025.xlsx
+++ b/resources/files/OPERACIONES DE EXPORTACION 2025.xlsx
@@ -1082,7 +1082,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,6 +1128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1239,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,36 +1416,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1453,6 +1429,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Millares 2" xfId="7"/>
@@ -2367,7 +2383,7 @@
     <col min="23" max="23" width="14.85546875" customWidth="1"/>
     <col min="24" max="24" width="21.5703125" customWidth="1"/>
     <col min="25" max="25" width="20.5703125" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" style="84" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" style="74" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="15.42578125" style="10" customWidth="1"/>
     <col min="29" max="29" width="27.28515625" customWidth="1"/>
@@ -2388,55 +2404,55 @@
   <sheetData>
     <row r="1" spans="1:16369" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="73" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="73" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="76" t="s">
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="76" t="s">
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="76" t="s">
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="76" t="s">
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="AJ1" s="78"/>
+      <c r="AJ1" s="76"/>
       <c r="AK1" s="18" t="s">
         <v>162</v>
       </c>
@@ -2446,14 +2462,14 @@
       <c r="AM1" s="20">
         <v>17.0626</v>
       </c>
-      <c r="AN1" s="70" t="s">
+      <c r="AN1" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="72"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="79"/>
       <c r="AT1" s="7"/>
       <c r="AU1" s="7"/>
       <c r="AV1" s="7"/>
@@ -18822,7 +18838,7 @@
       <c r="N2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="86" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="29" t="s">
@@ -18855,7 +18871,7 @@
       <c r="Y2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="85" t="s">
         <v>27</v>
       </c>
       <c r="AA2" s="29" t="s">
@@ -18882,7 +18898,7 @@
       <c r="AH2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="87" t="s">
         <v>31</v>
       </c>
       <c r="AJ2" s="30" t="s">
@@ -35306,7 +35322,7 @@
       <c r="Y3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="80" t="s">
+      <c r="Z3" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA3" s="14">
@@ -35396,7 +35412,7 @@
       <c r="Y4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="81" t="s">
+      <c r="Z4" s="71" t="s">
         <v>298</v>
       </c>
       <c r="AA4" s="14">
@@ -35484,7 +35500,7 @@
       <c r="Y5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="81" t="s">
+      <c r="Z5" s="71" t="s">
         <v>299</v>
       </c>
       <c r="AA5" s="14">
@@ -35578,7 +35594,7 @@
       <c r="Y6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="82" t="s">
+      <c r="Z6" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA6" s="14">
@@ -35674,7 +35690,7 @@
       <c r="Y7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="82" t="s">
+      <c r="Z7" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA7" s="14">
@@ -35770,7 +35786,7 @@
       <c r="Y8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="82" t="s">
+      <c r="Z8" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA8" s="14">
@@ -35866,7 +35882,7 @@
       <c r="Y9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="82" t="s">
+      <c r="Z9" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA9" s="14">
@@ -35960,7 +35976,7 @@
       <c r="Y10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z10" s="80" t="s">
+      <c r="Z10" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA10" s="14">
@@ -36054,7 +36070,7 @@
       <c r="Y11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="80" t="s">
+      <c r="Z11" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA11" s="14">
@@ -36148,7 +36164,7 @@
       <c r="Y12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z12" s="80" t="s">
+      <c r="Z12" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA12" s="14">
@@ -36244,7 +36260,7 @@
       <c r="Y13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="80" t="s">
+      <c r="Z13" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA13" s="14">
@@ -36338,7 +36354,7 @@
       <c r="Y14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="80" t="s">
+      <c r="Z14" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA14" s="14">
@@ -36415,7 +36431,7 @@
       <c r="Y15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z15" s="80" t="s">
+      <c r="Z15" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA15" s="14">
@@ -36504,7 +36520,7 @@
       <c r="Y16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z16" s="82" t="s">
+      <c r="Z16" s="72" t="s">
         <v>171</v>
       </c>
       <c r="AA16" s="14">
@@ -36598,7 +36614,7 @@
       <c r="Y17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="80" t="s">
+      <c r="Z17" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA17" s="14">
@@ -36694,7 +36710,7 @@
       <c r="Y18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z18" s="82" t="s">
+      <c r="Z18" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA18" s="14">
@@ -36788,7 +36804,7 @@
       <c r="Y19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z19" s="82" t="s">
+      <c r="Z19" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA19" s="14">
@@ -36884,7 +36900,7 @@
       <c r="Y20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z20" s="82" t="s">
+      <c r="Z20" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA20" s="14">
@@ -36980,7 +36996,7 @@
       <c r="Y21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z21" s="82" t="s">
+      <c r="Z21" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA21" s="14">
@@ -37077,7 +37093,7 @@
       <c r="Y22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z22" s="82" t="s">
+      <c r="Z22" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA22" s="14">
@@ -37173,7 +37189,7 @@
       <c r="Y23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z23" s="82" t="s">
+      <c r="Z23" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA23" s="14">
@@ -37270,7 +37286,7 @@
       <c r="Y24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="82" t="s">
+      <c r="Z24" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA24" s="14">
@@ -37366,7 +37382,7 @@
       <c r="Y25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z25" s="82" t="s">
+      <c r="Z25" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA25" s="14">
@@ -37379,7 +37395,7 @@
       </c>
       <c r="AF25" s="10"/>
       <c r="AH25" s="10"/>
-      <c r="AI25">
+      <c r="AI25" s="88">
         <v>10749</v>
       </c>
       <c r="AJ25" s="42">
@@ -37462,7 +37478,7 @@
       <c r="Y26" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z26" s="82" t="s">
+      <c r="Z26" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA26" s="14">
@@ -37558,7 +37574,7 @@
       <c r="Y27" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z27" s="82" t="s">
+      <c r="Z27" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA27" s="14">
@@ -37652,7 +37668,7 @@
       <c r="Y28" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z28" s="82" t="s">
+      <c r="Z28" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA28" s="14">
@@ -37748,7 +37764,7 @@
       <c r="Y29" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z29" s="82" t="s">
+      <c r="Z29" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA29" s="14">
@@ -37844,7 +37860,7 @@
       <c r="Y30" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z30" s="82" t="s">
+      <c r="Z30" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA30" s="14">
@@ -37940,7 +37956,7 @@
       <c r="Y31" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z31" s="82" t="s">
+      <c r="Z31" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA31" s="14">
@@ -38036,7 +38052,7 @@
       <c r="Y32" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z32" s="82" t="s">
+      <c r="Z32" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA32" s="14">
@@ -38130,7 +38146,7 @@
       <c r="Y33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z33" s="82" t="s">
+      <c r="Z33" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA33" s="14">
@@ -38222,7 +38238,7 @@
       <c r="Y34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z34" s="82" t="s">
+      <c r="Z34" s="72" t="s">
         <v>171</v>
       </c>
       <c r="AA34" s="14">
@@ -38314,7 +38330,7 @@
       <c r="Y35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z35" s="82" t="s">
+      <c r="Z35" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA35" s="14">
@@ -38388,7 +38404,7 @@
       <c r="Y36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z36" s="82" t="s">
+      <c r="Z36" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA36" s="14">
@@ -38464,7 +38480,7 @@
       <c r="Y37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z37" s="83" t="s">
+      <c r="Z37" s="73" t="s">
         <v>279</v>
       </c>
       <c r="AA37" s="14">
@@ -38533,7 +38549,7 @@
       <c r="Y38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="83" t="s">
+      <c r="Z38" s="73" t="s">
         <v>279</v>
       </c>
       <c r="AA38" s="14">
@@ -38622,7 +38638,7 @@
       <c r="Y39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z39" s="82" t="s">
+      <c r="Z39" s="72" t="s">
         <v>171</v>
       </c>
       <c r="AA39" s="14">
@@ -38710,7 +38726,7 @@
       <c r="Y40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z40" s="82" t="s">
+      <c r="Z40" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA40" s="14">
@@ -38798,7 +38814,7 @@
       <c r="Y41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z41" s="82" t="s">
+      <c r="Z41" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA41" s="14">
@@ -38880,7 +38896,7 @@
       <c r="Y42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z42" s="82" t="s">
+      <c r="Z42" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA42" s="14">
@@ -38962,7 +38978,7 @@
       <c r="Y43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z43" s="82" t="s">
+      <c r="Z43" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA43" s="14">
@@ -39044,7 +39060,7 @@
       <c r="Y44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z44" s="82" t="s">
+      <c r="Z44" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA44" s="14">
@@ -39124,7 +39140,7 @@
       <c r="Y45" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="80" t="s">
+      <c r="Z45" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA45" s="14">
@@ -39204,7 +39220,7 @@
       <c r="Y46" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="80" t="s">
+      <c r="Z46" s="70" t="s">
         <v>277</v>
       </c>
       <c r="AA46" s="14">
@@ -39280,7 +39296,7 @@
       <c r="Y47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="82" t="s">
+      <c r="Z47" s="72" t="s">
         <v>171</v>
       </c>
       <c r="AA47" s="14">
@@ -39350,7 +39366,7 @@
       <c r="Y48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z48" s="82" t="s">
+      <c r="Z48" s="72" t="s">
         <v>279</v>
       </c>
       <c r="AA48" s="14">
@@ -39398,7 +39414,7 @@
       <c r="R49" s="1"/>
       <c r="X49" s="60"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="82"/>
+      <c r="Z49" s="72"/>
       <c r="AA49" s="14"/>
       <c r="AD49" s="17"/>
       <c r="AI49" s="68"/>
@@ -39432,7 +39448,7 @@
       <c r="R50" s="1"/>
       <c r="X50" s="60"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="82"/>
+      <c r="Z50" s="72"/>
       <c r="AA50" s="14"/>
       <c r="AD50" s="17"/>
       <c r="AI50" s="68"/>
@@ -39466,7 +39482,7 @@
       <c r="R51" s="1"/>
       <c r="X51" s="60"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="82"/>
+      <c r="Z51" s="72"/>
       <c r="AA51" s="14"/>
       <c r="AD51" s="17"/>
       <c r="AI51" s="68"/>
@@ -39537,7 +39553,7 @@
       <c r="Y52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z52" s="82" t="s">
+      <c r="Z52" s="72" t="s">
         <v>171</v>
       </c>
       <c r="AA52" s="14">
@@ -39652,53 +39668,53 @@
       </c>
     </row>
     <row r="58" spans="1:16369" s="63" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="79"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="79"/>
-      <c r="T58" s="79"/>
-      <c r="U58" s="79"/>
-      <c r="V58" s="79"/>
-      <c r="W58" s="79"/>
-      <c r="X58" s="79"/>
-      <c r="Y58" s="79"/>
-      <c r="Z58" s="79"/>
-      <c r="AA58" s="79"/>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="79"/>
-      <c r="AD58" s="79"/>
-      <c r="AE58" s="79"/>
-      <c r="AF58" s="79"/>
-      <c r="AG58" s="79"/>
-      <c r="AH58" s="79"/>
-      <c r="AI58" s="79"/>
-      <c r="AJ58" s="79"/>
-      <c r="AK58" s="79"/>
-      <c r="AL58" s="79"/>
-      <c r="AM58" s="79"/>
-      <c r="AN58" s="79"/>
-      <c r="AO58" s="79"/>
-      <c r="AP58" s="79"/>
-      <c r="AQ58" s="79"/>
-      <c r="AR58" s="79"/>
-      <c r="AS58" s="79"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="80"/>
+      <c r="AA58" s="80"/>
+      <c r="AB58" s="80"/>
+      <c r="AC58" s="80"/>
+      <c r="AD58" s="80"/>
+      <c r="AE58" s="80"/>
+      <c r="AF58" s="80"/>
+      <c r="AG58" s="80"/>
+      <c r="AH58" s="80"/>
+      <c r="AI58" s="80"/>
+      <c r="AJ58" s="80"/>
+      <c r="AK58" s="80"/>
+      <c r="AL58" s="80"/>
+      <c r="AM58" s="80"/>
+      <c r="AN58" s="80"/>
+      <c r="AO58" s="80"/>
+      <c r="AP58" s="80"/>
+      <c r="AQ58" s="80"/>
+      <c r="AR58" s="80"/>
+      <c r="AS58" s="80"/>
       <c r="AT58" s="64"/>
       <c r="AU58" s="64"/>
       <c r="AV58" s="64"/>
@@ -39763,55 +39779,55 @@
     </row>
     <row r="59" spans="1:16369" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="73" t="s">
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="73" t="s">
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="82"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="75"/>
-      <c r="Y59" s="76" t="s">
+      <c r="T59" s="82"/>
+      <c r="U59" s="82"/>
+      <c r="V59" s="82"/>
+      <c r="W59" s="82"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="Z59" s="77"/>
-      <c r="AA59" s="77"/>
-      <c r="AB59" s="77"/>
-      <c r="AC59" s="77"/>
-      <c r="AD59" s="78"/>
-      <c r="AE59" s="76" t="s">
+      <c r="Z59" s="84"/>
+      <c r="AA59" s="84"/>
+      <c r="AB59" s="84"/>
+      <c r="AC59" s="84"/>
+      <c r="AD59" s="76"/>
+      <c r="AE59" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="AF59" s="78"/>
-      <c r="AG59" s="76" t="s">
+      <c r="AF59" s="76"/>
+      <c r="AG59" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AH59" s="78"/>
-      <c r="AI59" s="76" t="s">
+      <c r="AH59" s="76"/>
+      <c r="AI59" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="AJ59" s="78"/>
+      <c r="AJ59" s="76"/>
       <c r="AK59" s="18" t="s">
         <v>162</v>
       </c>
@@ -39821,14 +39837,14 @@
       <c r="AM59" s="20">
         <v>17.0626</v>
       </c>
-      <c r="AN59" s="70" t="s">
+      <c r="AN59" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="AO59" s="71"/>
-      <c r="AP59" s="71"/>
-      <c r="AQ59" s="71"/>
-      <c r="AR59" s="71"/>
-      <c r="AS59" s="72"/>
+      <c r="AO59" s="78"/>
+      <c r="AP59" s="78"/>
+      <c r="AQ59" s="78"/>
+      <c r="AR59" s="78"/>
+      <c r="AS59" s="79"/>
       <c r="AT59" s="65"/>
       <c r="AU59" s="65"/>
       <c r="AV59" s="65"/>
@@ -72664,7 +72680,7 @@
       <c r="Y61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z61" s="82" t="s">
+      <c r="Z61" s="72" t="s">
         <v>277</v>
       </c>
       <c r="AA61" s="14">
@@ -72737,7 +72753,7 @@
       <c r="Y62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z62" s="82" t="s">
+      <c r="Z62" s="72" t="s">
         <v>277</v>
       </c>
       <c r="AA62" s="14">
@@ -72765,6 +72781,14 @@
   </sheetData>
   <autoFilter ref="A2:AS62"/>
   <mergeCells count="17">
+    <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AG59:AH59"/>
     <mergeCell ref="AI59:AJ59"/>
     <mergeCell ref="AN59:AS59"/>
@@ -72774,14 +72798,6 @@
     <mergeCell ref="S59:X59"/>
     <mergeCell ref="Y59:AD59"/>
     <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/files/OPERACIONES DE EXPORTACION 2025.xlsx
+++ b/resources/files/OPERACIONES DE EXPORTACION 2025.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="7" r:id="rId1"/>
     <sheet name="ENERO" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ENERO!$A$2:$AS$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ENERO!$A$2:$AS$83</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="317">
   <si>
     <t>FLETE</t>
   </si>
@@ -922,9 +922,6 @@
     <t>#19</t>
   </si>
   <si>
-    <t>#20</t>
-  </si>
-  <si>
     <t>A327863</t>
   </si>
   <si>
@@ -934,9 +931,6 @@
     <t>A327864</t>
   </si>
   <si>
-    <t>A327866</t>
-  </si>
-  <si>
     <t xml:space="preserve">A327889 A327956 A328094 </t>
   </si>
   <si>
@@ -944,6 +938,63 @@
   </si>
   <si>
     <t>A328092 A328093</t>
+  </si>
+  <si>
+    <t>A328088 A328089 A328199 A328200</t>
+  </si>
+  <si>
+    <t>A328091 A328202</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>2x40</t>
+  </si>
+  <si>
+    <t>#20+#6</t>
+  </si>
+  <si>
+    <t>A327866 A328215</t>
+  </si>
+  <si>
+    <t>TM7021</t>
+  </si>
+  <si>
+    <t>HLXU5389140 UACU8355508 UACU8408589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB2501363910 </t>
+  </si>
+  <si>
+    <t>TM8003</t>
+  </si>
+  <si>
+    <t>tm120</t>
+  </si>
+  <si>
+    <t>TM224</t>
+  </si>
+  <si>
+    <t>TM7014</t>
+  </si>
+  <si>
+    <t>TM167</t>
+  </si>
+  <si>
+    <t>TM174</t>
+  </si>
+  <si>
+    <t>TM8055</t>
   </si>
   <si>
     <t>011701</t>
@@ -1082,7 +1133,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,12 +1179,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1284,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,6 +1461,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1429,46 +1504,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Millares 2" xfId="7"/>
@@ -2349,13 +2384,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEO62"/>
+  <dimension ref="A1:XEO83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2418,7 @@
     <col min="23" max="23" width="14.85546875" customWidth="1"/>
     <col min="24" max="24" width="21.5703125" customWidth="1"/>
     <col min="25" max="25" width="20.5703125" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" style="74" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" style="84" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="15.42578125" style="10" customWidth="1"/>
     <col min="29" max="29" width="27.28515625" customWidth="1"/>
@@ -2404,55 +2439,55 @@
   <sheetData>
     <row r="1" spans="1:16369" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="81" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="81" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="75" t="s">
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="75" t="s">
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="75" t="s">
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="75" t="s">
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="AJ1" s="76"/>
+      <c r="AJ1" s="78"/>
       <c r="AK1" s="18" t="s">
         <v>162</v>
       </c>
@@ -2462,14 +2497,14 @@
       <c r="AM1" s="20">
         <v>17.0626</v>
       </c>
-      <c r="AN1" s="77" t="s">
+      <c r="AN1" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="79"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="72"/>
       <c r="AT1" s="7"/>
       <c r="AU1" s="7"/>
       <c r="AV1" s="7"/>
@@ -18838,7 +18873,7 @@
       <c r="N2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="29" t="s">
@@ -18871,7 +18906,7 @@
       <c r="Y2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="85" t="s">
+      <c r="Z2" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AA2" s="29" t="s">
@@ -18898,7 +18933,7 @@
       <c r="AH2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="87" t="s">
+      <c r="AI2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="AJ2" s="30" t="s">
@@ -35322,7 +35357,7 @@
       <c r="Y3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="70" t="s">
+      <c r="Z3" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA3" s="14">
@@ -35412,8 +35447,8 @@
       <c r="Y4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="71" t="s">
-        <v>298</v>
+      <c r="Z4" s="81" t="s">
+        <v>315</v>
       </c>
       <c r="AA4" s="14">
         <v>10581.68</v>
@@ -35500,8 +35535,8 @@
       <c r="Y5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="71" t="s">
-        <v>299</v>
+      <c r="Z5" s="81" t="s">
+        <v>316</v>
       </c>
       <c r="AA5" s="14">
         <v>10581.68</v>
@@ -35594,7 +35629,7 @@
       <c r="Y6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="72" t="s">
+      <c r="Z6" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA6" s="14">
@@ -35690,7 +35725,7 @@
       <c r="Y7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z7" s="72" t="s">
+      <c r="Z7" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA7" s="14">
@@ -35786,7 +35821,7 @@
       <c r="Y8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z8" s="72" t="s">
+      <c r="Z8" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA8" s="14">
@@ -35882,7 +35917,7 @@
       <c r="Y9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="72" t="s">
+      <c r="Z9" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA9" s="14">
@@ -35976,7 +36011,7 @@
       <c r="Y10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="Z10" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA10" s="14">
@@ -35989,15 +36024,17 @@
       </c>
       <c r="AF10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="68" t="s">
-        <v>277</v>
+      <c r="AI10">
+        <v>10794</v>
       </c>
       <c r="AJ10" s="42">
-        <v>0</v>
+        <v>10219.6</v>
       </c>
       <c r="AK10" s="42"/>
       <c r="AM10" s="47"/>
-      <c r="AN10" s="44"/>
+      <c r="AN10" s="44">
+        <v>45701</v>
+      </c>
       <c r="AO10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Brasil #1  5002324</v>
@@ -36070,7 +36107,7 @@
       <c r="Y11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z11" s="70" t="s">
+      <c r="Z11" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA11" s="14">
@@ -36164,7 +36201,7 @@
       <c r="Y12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z12" s="70" t="s">
+      <c r="Z12" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA12" s="14">
@@ -36260,7 +36297,7 @@
       <c r="Y13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="70" t="s">
+      <c r="Z13" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA13" s="14">
@@ -36273,15 +36310,17 @@
       </c>
       <c r="AF13" s="10"/>
       <c r="AH13" s="10"/>
-      <c r="AI13" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ13" s="42">
-        <v>0</v>
+      <c r="AI13">
+        <v>10795</v>
+      </c>
+      <c r="AJ13" s="49">
+        <v>10219.6</v>
       </c>
       <c r="AK13" s="42"/>
       <c r="AM13" s="47"/>
-      <c r="AN13" s="21"/>
+      <c r="AN13" s="44">
+        <v>45701</v>
+      </c>
       <c r="AO13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Colombia #2  5002325</v>
@@ -36354,7 +36393,7 @@
       <c r="Y14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="70" t="s">
+      <c r="Z14" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA14" s="14">
@@ -36383,7 +36422,7 @@
         <v>Italia #1  5001788</v>
       </c>
     </row>
-    <row r="15" spans="1:16369" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16369" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
@@ -36400,7 +36439,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>184</v>
@@ -36408,8 +36447,14 @@
       <c r="I15" s="6" t="s">
         <v>185</v>
       </c>
+      <c r="J15" s="62" t="s">
+        <v>306</v>
+      </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>307</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>42</v>
@@ -36426,12 +36471,25 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="W15" s="22"/>
-      <c r="X15" s="10"/>
+      <c r="S15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3921</v>
+      </c>
+      <c r="U15" s="6">
+        <v>5002488</v>
+      </c>
+      <c r="W15" s="22">
+        <v>45694</v>
+      </c>
+      <c r="X15" s="10">
+        <v>2455964</v>
+      </c>
       <c r="Y15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z15" s="70" t="s">
+      <c r="Z15" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA15" s="14">
@@ -36455,7 +36513,7 @@
       <c r="AN15" s="21"/>
       <c r="AO15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Italia #2  </v>
+        <v>Italia #2  5002488</v>
       </c>
     </row>
     <row r="16" spans="1:16369" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36520,7 +36578,7 @@
       <c r="Y16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z16" s="72" t="s">
+      <c r="Z16" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA16" s="14">
@@ -36614,7 +36672,7 @@
       <c r="Y17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z17" s="70" t="s">
+      <c r="Z17" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA17" s="14">
@@ -36710,7 +36768,7 @@
       <c r="Y18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z18" s="72" t="s">
+      <c r="Z18" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA18" s="14">
@@ -36804,7 +36862,7 @@
       <c r="Y19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z19" s="72" t="s">
+      <c r="Z19" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA19" s="14">
@@ -36900,7 +36958,7 @@
       <c r="Y20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z20" s="72" t="s">
+      <c r="Z20" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA20" s="14">
@@ -36996,7 +37054,7 @@
       <c r="Y21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z21" s="72" t="s">
+      <c r="Z21" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA21" s="14">
@@ -37093,7 +37151,7 @@
       <c r="Y22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z22" s="72" t="s">
+      <c r="Z22" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA22" s="14">
@@ -37189,7 +37247,7 @@
       <c r="Y23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z23" s="72" t="s">
+      <c r="Z23" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA23" s="14">
@@ -37286,7 +37344,7 @@
       <c r="Y24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z24" s="72" t="s">
+      <c r="Z24" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA24" s="14">
@@ -37382,7 +37440,7 @@
       <c r="Y25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z25" s="72" t="s">
+      <c r="Z25" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA25" s="14">
@@ -37395,7 +37453,7 @@
       </c>
       <c r="AF25" s="10"/>
       <c r="AH25" s="10"/>
-      <c r="AI25" s="88">
+      <c r="AI25">
         <v>10749</v>
       </c>
       <c r="AJ25" s="42">
@@ -37478,7 +37536,7 @@
       <c r="Y26" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z26" s="72" t="s">
+      <c r="Z26" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA26" s="14">
@@ -37574,7 +37632,7 @@
       <c r="Y27" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z27" s="72" t="s">
+      <c r="Z27" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA27" s="14">
@@ -37587,15 +37645,17 @@
       </c>
       <c r="AF27" s="10"/>
       <c r="AH27" s="10"/>
-      <c r="AI27" s="68" t="s">
-        <v>277</v>
+      <c r="AI27">
+        <v>10786</v>
       </c>
       <c r="AJ27" s="42">
-        <v>0</v>
+        <v>7439.08</v>
       </c>
       <c r="AK27" s="42"/>
       <c r="AM27" s="47"/>
-      <c r="AN27" s="44"/>
+      <c r="AN27" s="44">
+        <v>45701</v>
+      </c>
       <c r="AO27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>BIP SALLY+BIP AVEDA #13+#4  5002358</v>
@@ -37668,7 +37728,7 @@
       <c r="Y28" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z28" s="72" t="s">
+      <c r="Z28" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA28" s="14">
@@ -37764,7 +37824,7 @@
       <c r="Y29" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z29" s="72" t="s">
+      <c r="Z29" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA29" s="14">
@@ -37860,7 +37920,7 @@
       <c r="Y30" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z30" s="72" t="s">
+      <c r="Z30" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA30" s="14">
@@ -37956,7 +38016,7 @@
       <c r="Y31" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z31" s="72" t="s">
+      <c r="Z31" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA31" s="14">
@@ -38052,7 +38112,7 @@
       <c r="Y32" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z32" s="72" t="s">
+      <c r="Z32" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA32" s="14">
@@ -38065,15 +38125,17 @@
       </c>
       <c r="AF32" s="10"/>
       <c r="AH32" s="10"/>
-      <c r="AI32" s="68" t="s">
-        <v>277</v>
+      <c r="AI32">
+        <v>10788</v>
       </c>
       <c r="AJ32" s="42">
-        <v>0</v>
+        <v>7439.08</v>
       </c>
       <c r="AK32" s="42"/>
       <c r="AM32" s="47"/>
-      <c r="AN32" s="44"/>
+      <c r="AN32" s="44">
+        <v>45701</v>
+      </c>
       <c r="AO32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>BIP-ITS A TEN #2  5002429</v>
@@ -38146,7 +38208,7 @@
       <c r="Y33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="Z33" s="72" t="s">
+      <c r="Z33" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA33" s="14">
@@ -38238,7 +38300,7 @@
       <c r="Y34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z34" s="72" t="s">
+      <c r="Z34" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA34" s="14">
@@ -38330,7 +38392,7 @@
       <c r="Y35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z35" s="72" t="s">
+      <c r="Z35" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA35" s="14">
@@ -38373,7 +38435,9 @@
       <c r="F36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>297</v>
+      </c>
       <c r="H36" s="6" t="s">
         <v>184</v>
       </c>
@@ -38382,7 +38446,7 @@
       </c>
       <c r="J36" s="41"/>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>53</v>
@@ -38404,7 +38468,7 @@
       <c r="Y36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z36" s="72" t="s">
+      <c r="Z36" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA36" s="14">
@@ -38448,7 +38512,7 @@
         <v>49</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>184</v>
@@ -38458,7 +38522,7 @@
       </c>
       <c r="J37" s="38"/>
       <c r="K37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>53</v>
@@ -38480,7 +38544,7 @@
       <c r="Y37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z37" s="73" t="s">
+      <c r="Z37" s="83" t="s">
         <v>279</v>
       </c>
       <c r="AA37" s="14">
@@ -38506,7 +38570,7 @@
         <v xml:space="preserve">El Salvador #1  </v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>54</v>
       </c>
@@ -38522,6 +38586,9 @@
       <c r="F38" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="G38" s="57" t="s">
+        <v>296</v>
+      </c>
       <c r="H38" s="6" t="s">
         <v>184</v>
       </c>
@@ -38529,7 +38596,7 @@
         <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>53</v>
@@ -38549,7 +38616,7 @@
       <c r="Y38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z38" s="73" t="s">
+      <c r="Z38" s="83" t="s">
         <v>279</v>
       </c>
       <c r="AA38" s="14">
@@ -38638,7 +38705,7 @@
       <c r="Y39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z39" s="72" t="s">
+      <c r="Z39" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA39" s="14">
@@ -38726,7 +38793,7 @@
       <c r="Y40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z40" s="72" t="s">
+      <c r="Z40" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA40" s="14">
@@ -38736,11 +38803,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="68" t="s">
-        <v>277</v>
+      <c r="AI40">
+        <v>10791</v>
       </c>
       <c r="AJ40" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN40" s="50">
+        <v>45701</v>
       </c>
       <c r="AO40" s="13" t="str">
         <f>+C40&amp;" "&amp;D40&amp;" "&amp;" "&amp;U40</f>
@@ -38814,7 +38884,7 @@
       <c r="Y41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z41" s="72" t="s">
+      <c r="Z41" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA41" s="14">
@@ -38824,11 +38894,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="68" t="s">
-        <v>277</v>
+      <c r="AI41">
+        <v>10801</v>
       </c>
       <c r="AJ41" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN41" s="50">
+        <v>45701</v>
       </c>
       <c r="AO41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -38860,9 +38933,15 @@
       <c r="I42" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J42" s="54" t="s">
+        <v>309</v>
+      </c>
       <c r="K42" t="s">
         <v>155</v>
       </c>
+      <c r="M42" s="38">
+        <v>503304418</v>
+      </c>
       <c r="N42" s="4" t="s">
         <v>51</v>
       </c>
@@ -38896,7 +38975,7 @@
       <c r="Y42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z42" s="72" t="s">
+      <c r="Z42" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA42" s="14">
@@ -38906,11 +38985,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="68" t="s">
-        <v>277</v>
+      <c r="AI42">
+        <v>10800</v>
       </c>
       <c r="AJ42" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN42" s="50">
+        <v>45701</v>
       </c>
       <c r="AO42" s="13" t="str">
         <f>+C42&amp;" "&amp;D42&amp;" "&amp;" "&amp;U42</f>
@@ -38942,9 +39024,15 @@
       <c r="I43" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J43" s="53" t="s">
+        <v>310</v>
+      </c>
       <c r="K43" t="s">
         <v>155</v>
       </c>
+      <c r="M43" s="38">
+        <v>503664970</v>
+      </c>
       <c r="N43" s="4" t="s">
         <v>51</v>
       </c>
@@ -38978,7 +39066,7 @@
       <c r="Y43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z43" s="72" t="s">
+      <c r="Z43" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA43" s="14">
@@ -38988,11 +39076,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI43" s="68" t="s">
-        <v>277</v>
+      <c r="AI43">
+        <v>10798</v>
       </c>
       <c r="AJ43" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN43" s="50">
+        <v>45701</v>
       </c>
       <c r="AO43" s="13" t="str">
         <f t="shared" si="0"/>
@@ -39024,9 +39115,15 @@
       <c r="I44" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J44" s="53" t="s">
+        <v>311</v>
+      </c>
       <c r="K44" t="s">
         <v>155</v>
       </c>
+      <c r="M44" s="38">
+        <v>503304416</v>
+      </c>
       <c r="N44" s="4" t="s">
         <v>51</v>
       </c>
@@ -39060,7 +39157,7 @@
       <c r="Y44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z44" s="72" t="s">
+      <c r="Z44" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA44" s="14">
@@ -39070,11 +39167,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI44" s="68" t="s">
-        <v>277</v>
+      <c r="AI44">
+        <v>10797</v>
       </c>
       <c r="AJ44" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN44" s="50">
+        <v>45701</v>
       </c>
       <c r="AO44" s="13" t="str">
         <f t="shared" si="0"/>
@@ -39096,7 +39196,7 @@
         <v>49</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>184</v>
@@ -39104,9 +39204,15 @@
       <c r="I45" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J45" s="53" t="s">
+        <v>312</v>
+      </c>
       <c r="K45" t="s">
         <v>155</v>
       </c>
+      <c r="M45" s="38">
+        <v>503304412</v>
+      </c>
       <c r="N45" s="4" t="s">
         <v>51</v>
       </c>
@@ -39140,7 +39246,7 @@
       <c r="Y45" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="70" t="s">
+      <c r="Z45" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA45" s="14">
@@ -39150,11 +39256,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI45" s="68" t="s">
-        <v>277</v>
+      <c r="AI45">
+        <v>10799</v>
       </c>
       <c r="AJ45" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN45" s="50">
+        <v>45701</v>
       </c>
       <c r="AO45" s="13" t="str">
         <f t="shared" si="0"/>
@@ -39184,8 +39293,14 @@
       <c r="I46" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J46" s="54" t="s">
+        <v>313</v>
+      </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="M46" s="38">
+        <v>503304408</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>51</v>
@@ -39220,7 +39335,7 @@
       <c r="Y46" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z46" s="70" t="s">
+      <c r="Z46" s="80" t="s">
         <v>277</v>
       </c>
       <c r="AA46" s="14">
@@ -39230,11 +39345,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI46" s="68" t="s">
-        <v>277</v>
+      <c r="AI46">
+        <v>10793</v>
       </c>
       <c r="AJ46" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN46" s="50">
+        <v>45701</v>
       </c>
       <c r="AO46" s="13" t="str">
         <f t="shared" si="0"/>
@@ -39296,7 +39414,7 @@
       <c r="Y47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="72" t="s">
+      <c r="Z47" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA47" s="14">
@@ -39334,7 +39452,7 @@
         <v>49</v>
       </c>
       <c r="G48" s="57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>184</v>
@@ -39342,8 +39460,14 @@
       <c r="I48" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J48" s="53" t="s">
+        <v>308</v>
+      </c>
       <c r="K48" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="M48" s="38">
+        <v>503304409</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>51</v>
@@ -39360,13 +39484,25 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
+      <c r="S48" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="T48" s="6">
+        <v>1632</v>
+      </c>
+      <c r="U48" s="6">
+        <v>5003205</v>
+      </c>
+      <c r="W48" s="55">
+        <v>45692</v>
+      </c>
       <c r="X48" s="60">
-        <v>0</v>
+        <v>2389098</v>
       </c>
       <c r="Y48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z48" s="72" t="s">
+      <c r="Z48" s="82" t="s">
         <v>279</v>
       </c>
       <c r="AA48" s="14">
@@ -39376,15 +39512,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI48" s="68" t="s">
-        <v>277</v>
+      <c r="AI48">
+        <v>10803</v>
       </c>
       <c r="AJ48" s="42">
-        <v>0</v>
+        <v>7439.08</v>
+      </c>
+      <c r="AN48" s="50">
+        <v>45701</v>
       </c>
       <c r="AO48" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIP S + BIP A #17+#5  </v>
+        <v>BIP S + BIP A #17+#5  5003205</v>
       </c>
     </row>
     <row r="49" spans="1:16369" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39404,22 +39543,72 @@
         <v>49</v>
       </c>
       <c r="G49" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="67"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="1"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="14"/>
-      <c r="AD49" s="17"/>
+        <v>290</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="K49" t="s">
+        <v>155</v>
+      </c>
+      <c r="M49" s="38">
+        <v>503664968</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O49" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="T49" s="6">
+        <v>1632</v>
+      </c>
+      <c r="U49" s="6">
+        <v>5003358</v>
+      </c>
+      <c r="W49" s="55">
+        <v>45694</v>
+      </c>
+      <c r="X49" s="60">
+        <v>1276490</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z49" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AI49" s="68"/>
       <c r="AJ49" s="42"/>
-      <c r="AO49" s="13"/>
+      <c r="AO49" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BIP SALLY #18  5003358</v>
+      </c>
     </row>
     <row r="50" spans="1:16369" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
@@ -39438,32 +39627,82 @@
         <v>49</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="67"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="1"/>
-      <c r="X50" s="60"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="72"/>
-      <c r="AA50" s="14"/>
-      <c r="AD50" s="17"/>
+        <v>292</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="K50" t="s">
+        <v>155</v>
+      </c>
+      <c r="M50" s="38">
+        <v>503664966</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O50" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="T50" s="6">
+        <v>1632</v>
+      </c>
+      <c r="U50" s="6">
+        <v>5003477</v>
+      </c>
+      <c r="W50" s="55">
+        <v>45695</v>
+      </c>
+      <c r="X50" s="60">
+        <v>730981</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z50" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AI50" s="68"/>
       <c r="AJ50" s="42"/>
-      <c r="AO50" s="13"/>
+      <c r="AO50" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BIP SALLY #19  5003477</v>
+      </c>
     </row>
-    <row r="51" spans="1:16369" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16369" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>46</v>
@@ -39471,23 +39710,73 @@
       <c r="F51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="67"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="1"/>
-      <c r="X51" s="60"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="72"/>
-      <c r="AA51" s="14"/>
-      <c r="AD51" s="17"/>
+      <c r="G51" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="K51" t="s">
+        <v>155</v>
+      </c>
+      <c r="M51" s="38">
+        <v>503664967</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O51" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="T51" s="6">
+        <v>1632</v>
+      </c>
+      <c r="U51" s="6">
+        <v>5003452</v>
+      </c>
+      <c r="W51" s="55">
+        <v>45698</v>
+      </c>
+      <c r="X51" s="60">
+        <v>928920</v>
+      </c>
+      <c r="Y51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z51" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AI51" s="68"/>
       <c r="AJ51" s="42"/>
-      <c r="AO51" s="13"/>
+      <c r="AO51" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>BIP S + BIP A #20+#6  5003452</v>
+      </c>
     </row>
     <row r="52" spans="1:16369" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
@@ -39553,7 +39842,7 @@
       <c r="Y52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z52" s="72" t="s">
+      <c r="Z52" s="82" t="s">
         <v>171</v>
       </c>
       <c r="AA52" s="14">
@@ -39663,58 +39952,56 @@
       <c r="AO56" s="13"/>
     </row>
     <row r="57" spans="1:16369" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:16369" s="63" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="80" t="s">
+      <c r="A58" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
-      <c r="R58" s="80"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
-      <c r="AA58" s="80"/>
-      <c r="AB58" s="80"/>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="80"/>
-      <c r="AE58" s="80"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="80"/>
-      <c r="AH58" s="80"/>
-      <c r="AI58" s="80"/>
-      <c r="AJ58" s="80"/>
-      <c r="AK58" s="80"/>
-      <c r="AL58" s="80"/>
-      <c r="AM58" s="80"/>
-      <c r="AN58" s="80"/>
-      <c r="AO58" s="80"/>
-      <c r="AP58" s="80"/>
-      <c r="AQ58" s="80"/>
-      <c r="AR58" s="80"/>
-      <c r="AS58" s="80"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="79"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="79"/>
+      <c r="T58" s="79"/>
+      <c r="U58" s="79"/>
+      <c r="V58" s="79"/>
+      <c r="W58" s="79"/>
+      <c r="X58" s="79"/>
+      <c r="Y58" s="79"/>
+      <c r="Z58" s="79"/>
+      <c r="AA58" s="79"/>
+      <c r="AB58" s="79"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="79"/>
+      <c r="AE58" s="79"/>
+      <c r="AF58" s="79"/>
+      <c r="AG58" s="79"/>
+      <c r="AH58" s="79"/>
+      <c r="AI58" s="79"/>
+      <c r="AJ58" s="79"/>
+      <c r="AK58" s="79"/>
+      <c r="AL58" s="79"/>
+      <c r="AM58" s="79"/>
+      <c r="AN58" s="79"/>
+      <c r="AO58" s="79"/>
+      <c r="AP58" s="79"/>
+      <c r="AQ58" s="79"/>
+      <c r="AR58" s="79"/>
+      <c r="AS58" s="79"/>
       <c r="AT58" s="64"/>
       <c r="AU58" s="64"/>
       <c r="AV58" s="64"/>
@@ -39779,55 +40066,55 @@
     </row>
     <row r="59" spans="1:16369" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="81" t="s">
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="81" t="s">
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="T59" s="82"/>
-      <c r="U59" s="82"/>
-      <c r="V59" s="82"/>
-      <c r="W59" s="82"/>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="75" t="s">
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="74"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="75"/>
+      <c r="Y59" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Z59" s="84"/>
-      <c r="AA59" s="84"/>
-      <c r="AB59" s="84"/>
-      <c r="AC59" s="84"/>
-      <c r="AD59" s="76"/>
-      <c r="AE59" s="75" t="s">
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="77"/>
+      <c r="AB59" s="77"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="78"/>
+      <c r="AE59" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="AF59" s="76"/>
-      <c r="AG59" s="75" t="s">
+      <c r="AF59" s="78"/>
+      <c r="AG59" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AH59" s="76"/>
-      <c r="AI59" s="75" t="s">
+      <c r="AH59" s="78"/>
+      <c r="AI59" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="AJ59" s="76"/>
+      <c r="AJ59" s="78"/>
       <c r="AK59" s="18" t="s">
         <v>162</v>
       </c>
@@ -39837,14 +40124,14 @@
       <c r="AM59" s="20">
         <v>17.0626</v>
       </c>
-      <c r="AN59" s="77" t="s">
+      <c r="AN59" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="AO59" s="78"/>
-      <c r="AP59" s="78"/>
-      <c r="AQ59" s="78"/>
-      <c r="AR59" s="78"/>
-      <c r="AS59" s="79"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
+      <c r="AR59" s="71"/>
+      <c r="AS59" s="72"/>
       <c r="AT59" s="65"/>
       <c r="AU59" s="65"/>
       <c r="AV59" s="65"/>
@@ -72680,7 +72967,7 @@
       <c r="Y61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z61" s="72" t="s">
+      <c r="Z61" s="82" t="s">
         <v>277</v>
       </c>
       <c r="AA61" s="14">
@@ -72753,7 +73040,7 @@
       <c r="Y62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Z62" s="72" t="s">
+      <c r="Z62" s="82" t="s">
         <v>277</v>
       </c>
       <c r="AA62" s="14">
@@ -72778,17 +73065,724 @@
         <v xml:space="preserve">Ecuador #1  </v>
       </c>
     </row>
+    <row r="63" spans="1:16369" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" t="s">
+        <v>155</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P63" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z63" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="17">
+        <f t="shared" ref="AD63:AD65" si="2">AA63+AB63+AC63</f>
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="13" t="str">
+        <f t="shared" ref="AO63:AO73" si="3">+C63&amp;" "&amp;D63&amp;" "&amp;" "&amp;U63</f>
+        <v xml:space="preserve">BIP SALLY #21  </v>
+      </c>
+    </row>
+    <row r="64" spans="1:16369" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K64" t="s">
+        <v>155</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z64" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">BIP SALLY #22  </v>
+      </c>
+    </row>
+    <row r="65" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K65" t="s">
+        <v>155</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z65" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">BIP SALLY #23  </v>
+      </c>
+    </row>
+    <row r="66" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K66" t="s">
+        <v>155</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P66" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="10">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z66" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">BIP ALFA #7  </v>
+      </c>
+    </row>
+    <row r="67" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67" t="s">
+        <v>155</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z67" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">BIP AVEDA #6  </v>
+      </c>
+    </row>
+    <row r="68" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" t="s">
+        <v>154</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z68" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Perú #2  </v>
+      </c>
+    </row>
+    <row r="69" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" t="s">
+        <v>154</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z69" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Perú #3  </v>
+      </c>
+    </row>
+    <row r="70" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" t="s">
+        <v>154</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P70" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z70" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Italia #3  </v>
+      </c>
+    </row>
+    <row r="71" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" t="s">
+        <v>154</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P71" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z71" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO71" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Italia #4  </v>
+      </c>
+    </row>
+    <row r="72" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K72" t="s">
+        <v>154</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z72" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Colombia #3  </v>
+      </c>
+    </row>
+    <row r="73" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73" t="s">
+        <v>154</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="P73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="10">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z73" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Chile #3  </v>
+      </c>
+    </row>
+    <row r="74" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="2:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AS62"/>
+  <autoFilter ref="A2:AS83"/>
   <mergeCells count="17">
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AG59:AH59"/>
     <mergeCell ref="AI59:AJ59"/>
     <mergeCell ref="AN59:AS59"/>
@@ -72798,6 +73792,14 @@
     <mergeCell ref="S59:X59"/>
     <mergeCell ref="Y59:AD59"/>
     <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72809,7 +73811,7 @@
           <x14:formula1>
             <xm:f>DATA!$H$3:$H$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N3 N6:N11 N61:N62 N14:N37</xm:sqref>
+          <xm:sqref>N3 N6:N11 N61:N67 N14:N37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -72827,13 +73829,13 @@
           <x14:formula1>
             <xm:f>DATA!$C$3:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>C3 C6:C8 C17:C31 E62 A39 C33:C38 C10:C15 C61:C62 C40:C56</xm:sqref>
+          <xm:sqref>C3 C6:C8 C17:C31 E68:E73 A39 C33:C38 C10:C15 C61:C75 E62 C40:C56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$E$3:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F3 F61:F62 F6:F38 F49:F51</xm:sqref>
+          <xm:sqref>F3 F61:F67 F6:F38 F49:F51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -72845,7 +73847,7 @@
           <x14:formula1>
             <xm:f>DATA!$F$3:$F$9</xm:f>
           </x14:formula1>
-          <xm:sqref>A10 I61:I62 I6:I52</xm:sqref>
+          <xm:sqref>A10 I73 I61:I71 I6:I52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -72869,13 +73871,13 @@
           <x14:formula1>
             <xm:f>DATA!$G$3:$G$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K61:K62 K3:K52</xm:sqref>
+          <xm:sqref>K61:K73 K3:K52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATA!$B$3:$B$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B61:B62 B3:B57</xm:sqref>
+          <xm:sqref>B61:B83 B3:B57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
